--- a/F_dataset/DUD-E/FAK1/FAK1_prepare/FAK1_active.xlsx
+++ b/F_dataset/DUD-E/FAK1/FAK1_prepare/FAK1_active.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:T101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6335,762 +6335,6 @@
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>CHEMBL4066053</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>1</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>FC(F)(F)c1cccc(N2CCN(Cn3nc(-c4ccc5c(c4)OCCO5)oc3=S)CC2)c1</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>FC(F)(F)c1cccc(N2CCN(Cn3nc(-c4ccc5c(c4)OCCO5)oc3=S)CC2)c1</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G102" t="n">
-        <v>478.5</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>7</v>
-      </c>
-      <c r="J102" t="n">
-        <v>4</v>
-      </c>
-      <c r="K102" t="n">
-        <v>5</v>
-      </c>
-      <c r="L102" t="n">
-        <v>3</v>
-      </c>
-      <c r="M102" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q102" t="n">
-        <v>780</v>
-      </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>CHEMBL4017675</t>
-        </is>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK (unknown origin) by enzyme immuno assay</t>
-        </is>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>CHEMBL2207440</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>1</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Cc1ccc(-n2nc(C(C)(C)C)cc2NC(=O)Nc2cc(-c3ccc4ncccc4c3)[nH]n2)cc1</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Cc1ccc(-n2nc(C(C)(C)C)cc2NC(=O)Nc2cc(-c3ccc4ncccc4c3)[nH]n2)cc1</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
-        <v>465.56</v>
-      </c>
-      <c r="H103" t="n">
-        <v>3</v>
-      </c>
-      <c r="I103" t="n">
-        <v>4</v>
-      </c>
-      <c r="J103" t="n">
-        <v>4</v>
-      </c>
-      <c r="K103" t="n">
-        <v>5</v>
-      </c>
-      <c r="L103" t="n">
-        <v>5</v>
-      </c>
-      <c r="M103" t="n">
-        <v>100.52</v>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q103" t="n">
-        <v>608</v>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>CHEMBL2209546</t>
-        </is>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK after 2hrs by fluorescence polarization assay</t>
-        </is>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>CHEMBL4102284</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>1</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Cc1nc(C)c(/C=C2\CN(C(C)C)C/C(=C\c3nc(C)c(C)nc3C)C2=NO)nc1C</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Cc1nc(C)c(/C=C2\CN(C(C)C)C/C(=C\c3nc(C)c(C)nc3C)C2=NO)nc1C</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
-        <v>420.56</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>6</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3</v>
-      </c>
-      <c r="K104" t="n">
-        <v>3</v>
-      </c>
-      <c r="L104" t="n">
-        <v>2</v>
-      </c>
-      <c r="M104" t="n">
-        <v>87.39</v>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q104" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>CHEMBL4034794</t>
-        </is>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK (unknown origin) assembly preincubated with enzyme followed by GTP addition measured after 20 mins by spectrophotometric analysis</t>
-        </is>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>CHEMBL3665939</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>1</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>CCN(c1ccccc1Oc1nc(Nc2cc(F)c(C(=O)NC3CCN(C)CC3)cc2OC)ncc1C(F)(F)F)S(C)(=O)=O</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>CCN(c1ccccc1Oc1nc(Nc2cc(F)c(C(=O)NC3CCN(C)CC3)cc2OC)ncc1C(F)(F)F)S(C)(=O)=O</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
-        <v>640.66</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>9</v>
-      </c>
-      <c r="J105" t="n">
-        <v>10</v>
-      </c>
-      <c r="K105" t="n">
-        <v>4</v>
-      </c>
-      <c r="L105" t="n">
-        <v>3</v>
-      </c>
-      <c r="M105" t="n">
-        <v>125.99</v>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q105" t="n">
-        <v>38</v>
-      </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>CHEMBL3705995</t>
-        </is>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>DELFIA Assay: This test uses active PTK2 enzyme (Invitrogen Code PV3832) and poly-Glu-Tyr (4:1, Sigma P-0275) as the kinase substrate. The kinase activity is detected by means of the phosphorylation of the substrate in a DELFIA assay. The phosphorylated substrate is detected with the Europium-labelled phosphotyrosine antibody PY20 (Perkin Elmer, No.: AD0038). In order to determine concentration-activity curves with PTK2-inhibitors the compounds are serially diluted in 10% DMSO/H2O and 10 L of each dilution are dispensed per well in a 96-well microtitre plate (clear U-shaped base plate, Greiner No. 650101) (the inhibitors are tested in duplicates) and mixed with 10 L/well of PTK2 kinase (0.01 ug/well). PTK2 kinase is diluted accordingly beforehand with kinase dilution buffer (20 mM TRIS/HCl pH 7.5, 0.1 mM EDTA, 0.1 mM EGTA, 0.286 mM sodium orthovanadate, 10% glycerol with the addition of freshly prepared BSA (fraction V 1 mg/mL) and DTT (1 mM)).</t>
-        </is>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>CHEMBL4776107</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>1</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Cc1nc2c(s1)N(C)c1nc(Nc3ccc4c(c3)CCC(=O)N4)ncc1N(C)C2=O</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Cc1nc2c(s1)N(C)c1nc(Nc3ccc4c(c3)CCC(=O)N4)ncc1N(C)C2=O</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
-        <v>421.49</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>7</v>
-      </c>
-      <c r="J106" t="n">
-        <v>2</v>
-      </c>
-      <c r="K106" t="n">
-        <v>5</v>
-      </c>
-      <c r="L106" t="n">
-        <v>3</v>
-      </c>
-      <c r="M106" t="n">
-        <v>103.35</v>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q106" t="n">
-        <v>670</v>
-      </c>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>CHEMBL4679512</t>
-        </is>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>Inhibition of Focal adhesion kinase (unknown origin) using Tyr 07 peptide substrate incubated for 60 mins at room temperature followed by 60 mins development reaction measured fluorescence by Z-LYTE assay</t>
-        </is>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>CHEMBL1257912</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>1</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>CC(=O)Nc1ccc2c(c1)C(c1ccccc1Cl)=Nc1c[nH]nc1N2</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>CC(=O)Nc1ccc2c(c1)C(c1ccccc1Cl)=Nc1c[nH]nc1N2</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
-        <v>351.8</v>
-      </c>
-      <c r="H107" t="n">
-        <v>3</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3</v>
-      </c>
-      <c r="J107" t="n">
-        <v>2</v>
-      </c>
-      <c r="K107" t="n">
-        <v>4</v>
-      </c>
-      <c r="L107" t="n">
-        <v>4</v>
-      </c>
-      <c r="M107" t="n">
-        <v>82.17</v>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q107" t="n">
-        <v>180</v>
-      </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>CHEMBL1261154</t>
-        </is>
-      </c>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK</t>
-        </is>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>CHEMBL3104855</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>1</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Cc1c(O)c(O)c(O)c(C=O)c1-c1cc2c(C=O)c(C)c(O)c(O)c2o1</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Cc1c(O)c(O)c(O)c(C=O)c1-c1cc2c(C=O)c(C)c(O)c(O)c2o1</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
-        <v>358.3</v>
-      </c>
-      <c r="H108" t="n">
-        <v>5</v>
-      </c>
-      <c r="I108" t="n">
-        <v>8</v>
-      </c>
-      <c r="J108" t="n">
-        <v>3</v>
-      </c>
-      <c r="K108" t="n">
-        <v>3</v>
-      </c>
-      <c r="L108" t="n">
-        <v>3</v>
-      </c>
-      <c r="M108" t="n">
-        <v>148.43</v>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q108" t="n">
-        <v>800</v>
-      </c>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>CHEMBL3108325</t>
-        </is>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>CHEMBL1940999</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>1</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>O=C(CCCn1[se]c2ccccc2c1=O)N[C@@H]1O[C@H](CO)[C@@H](O)[C@H](O)[C@H]1O</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>O=C(CCCn1[se]c2ccccc2c1=O)N[C@@H]1O[C@H](CO)[C@@H](O)[C@H](O)[C@H]1O</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
-        <v>445.33</v>
-      </c>
-      <c r="H109" t="n">
-        <v>5</v>
-      </c>
-      <c r="I109" t="n">
-        <v>7</v>
-      </c>
-      <c r="J109" t="n">
-        <v>6</v>
-      </c>
-      <c r="K109" t="n">
-        <v>3</v>
-      </c>
-      <c r="L109" t="n">
-        <v>2</v>
-      </c>
-      <c r="M109" t="n">
-        <v>141.25</v>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q109" t="n">
-        <v>960</v>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>CHEMBL1944085</t>
-        </is>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>Inhibition of human recombinant full-length FAK using ATP and Poly Glu:Tyr as substrate after 4 hrs by luminescence analysis</t>
-        </is>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>CHEMBL550011</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>1</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>CN(C)CCN(Cc1ccc(Cl)cc1)c1ccccn1</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>CN(C)CCN(Cc1ccc(Cl)cc1)c1ccccn1</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
-        <v>289.81</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3</v>
-      </c>
-      <c r="J110" t="n">
-        <v>6</v>
-      </c>
-      <c r="K110" t="n">
-        <v>2</v>
-      </c>
-      <c r="L110" t="n">
-        <v>2</v>
-      </c>
-      <c r="M110" t="n">
-        <v>19.37</v>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q110" t="n">
-        <v>570</v>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>CHEMBL3268326</t>
-        </is>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>Binding affinity to biotinylated human FAK FAT domain by biolayer interoferometry</t>
-        </is>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
